--- a/desginer/001excel/表结构.xlsx
+++ b/desginer/001excel/表结构.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
+    <sheet name="用户表" sheetId="4" r:id="rId2"/>
+    <sheet name="登录" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +115,106 @@
   </si>
   <si>
     <t>取自dict_id字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用户名 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键，用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键，用户登录名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,8 +258,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -176,7 +281,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -218,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,7 +358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,33 +569,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -504,7 +610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -515,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -526,7 +632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -540,7 +646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -551,7 +657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -562,7 +668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -574,6 +680,207 @@
       </c>
       <c r="D8" t="s">
         <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/desginer/001excel/表结构.xlsx
+++ b/desginer/001excel/表结构.xlsx
@@ -694,8 +694,8 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -786,7 +786,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/desginer/001excel/表结构.xlsx
+++ b/desginer/001excel/表结构.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
     <sheet name="用户表" sheetId="4" r:id="rId2"/>
     <sheet name="登录" sheetId="3" r:id="rId3"/>
+    <sheet name="菜单路由" sheetId="5" r:id="rId4"/>
+    <sheet name="角色" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,171 +52,301 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dict_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类别id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_category_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取自dict_id字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用户名 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键，用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键，用户登录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alwaysShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noCache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Layout布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当设置 noredirect 的时候该路由不会在面包屑导航中出现</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当设置 true 的时候该路由不会再侧边栏出现 如401，login等页面(默认 false)</t>
+  </si>
+  <si>
+    <t>当设置 true 的时候永远会显示根菜单，不设置的情况下只有当子路由个数大于一个时才会显示根菜单</t>
+  </si>
+  <si>
+    <t>设置该路由在侧边栏和面包屑中展示的名字</t>
+  </si>
+  <si>
+    <t>设置该路由的图标</t>
+  </si>
+  <si>
+    <t>角色数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果设置为true ,则不会被 &lt;keep-alive&gt; 缓存(默认 false)</t>
+  </si>
+  <si>
+    <t>父路由id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>自增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dict_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类别id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict_category_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取自dict_id字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">用户名 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键，用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键，用户登录名</t>
+    <t>自增，从600000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增，从600000开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +703,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -607,70 +739,70 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -679,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -694,8 +826,8 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -719,59 +851,74 @@
     </row>
     <row r="2" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -784,9 +931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -810,77 +957,77 @@
     </row>
     <row r="2" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -888,4 +1035,303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/desginer/001excel/表结构.xlsx
+++ b/desginer/001excel/表结构.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
-    <sheet name="用户表" sheetId="4" r:id="rId2"/>
+    <sheet name="用户信息表" sheetId="4" r:id="rId2"/>
     <sheet name="登录" sheetId="3" r:id="rId3"/>
     <sheet name="菜单路由" sheetId="5" r:id="rId4"/>
     <sheet name="角色" sheetId="6" r:id="rId5"/>
+    <sheet name="用户菜单路由" sheetId="7" r:id="rId6"/>
+    <sheet name="用户角色表" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,14 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,14 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,103 +182,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增，从600000开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ids，使用,分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当设置 noredirect 的时候该路由不会在面包屑导航中出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>router_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alwaysShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noCache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>路由id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>router_parent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自增主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>redirect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hidden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alwaysShow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noCache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由请求路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用Layout布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当设置 noredirect 的时候该路由不会在面包屑导航中出现</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当设置 true 的时候该路由不会再侧边栏出现 如401，login等页面(默认 false)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当设置 true 的时候永远会显示根菜单，不设置的情况下只有当子路由个数大于一个时才会显示根菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设置该路由在侧边栏和面包屑中展示的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设置该路由的图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>角色数组</t>
@@ -300,33 +363,38 @@
   </si>
   <si>
     <t>如果设置为true ,则不会被 &lt;keep-alive&gt; 缓存(默认 false)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>父路由id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>role_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>role_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -334,19 +402,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>自增，从600000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增，从600000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增，从600000开始</t>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由ids,使用,分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +493,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -455,7 +535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,7 +570,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -699,19 +779,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,99 +799,108 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
+      <c r="E8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -823,16 +912,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,85 +929,94 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -929,16 +1027,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,88 +1044,97 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
+      <c r="E7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1039,199 +1146,220 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1243,91 +1371,285 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
+      <c r="E6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/desginer/001excel/表结构.xlsx
+++ b/desginer/001excel/表结构.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="角色" sheetId="6" r:id="rId5"/>
     <sheet name="用户菜单路由" sheetId="7" r:id="rId6"/>
     <sheet name="用户角色表" sheetId="8" r:id="rId7"/>
+    <sheet name="用户信息视图" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="105">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +428,18 @@
   </si>
   <si>
     <t>路由ids,使用,分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称，使用,分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +506,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -535,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,7 +583,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -786,12 +799,12 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -825,7 +838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -839,7 +852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -853,7 +866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -867,7 +880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -878,7 +891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -889,7 +902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -919,9 +932,9 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -955,7 +968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -972,7 +985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -986,7 +999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -997,7 +1010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1008,7 +1021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1034,9 +1047,9 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1070,7 +1083,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1087,7 +1100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +1114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1112,7 +1125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1123,7 +1136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1150,12 +1163,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1175,7 +1188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1189,7 +1202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1203,7 +1216,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1220,7 +1233,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1234,7 +1247,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1248,7 +1261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1262,7 +1275,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1276,7 +1289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1290,7 +1303,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1304,7 +1317,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1318,7 +1331,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1329,7 +1342,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1340,7 +1353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1351,7 +1364,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1378,9 +1391,9 @@
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1400,7 +1413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1414,7 +1427,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1428,7 +1441,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1439,7 +1452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1450,7 +1463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1476,12 +1489,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1512,7 +1525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -1523,7 +1536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1534,7 +1547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1545,7 +1558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -1567,14 +1580,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1594,7 +1607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1605,18 +1618,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1627,7 +1640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1638,7 +1651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1656,4 +1669,262 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/desginer/001excel/表结构.xlsx
+++ b/desginer/001excel/表结构.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="107">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,6 +440,14 @@
   </si>
   <si>
     <t>角色名称，使用,分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_parent_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由父ids,使用，分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +514,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -548,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,7 +591,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -799,12 +807,12 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -838,7 +846,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -852,7 +860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -866,7 +874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -880,7 +888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -891,7 +899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -902,7 +910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -932,9 +940,9 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -968,7 +976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -985,7 +993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -999,7 +1007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1010,7 +1018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1021,7 +1029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1047,9 +1055,9 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1083,7 +1091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +1108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1114,7 +1122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1136,7 +1144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1166,9 +1174,9 @@
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1188,7 +1196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1202,7 +1210,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1216,7 +1224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1247,7 +1255,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1261,7 +1269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1275,7 +1283,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1289,7 +1297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1303,7 +1311,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1317,7 +1325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1331,7 +1339,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1342,7 +1350,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1353,7 +1361,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1364,7 +1372,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1391,9 +1399,9 @@
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1413,7 +1421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1427,7 +1435,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1441,7 +1449,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1452,7 +1460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1463,7 +1471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1485,16 +1493,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:E3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1514,7 +1522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1525,47 +1533,58 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>99</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1585,9 +1604,9 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1607,7 +1626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1618,7 +1637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1629,7 +1648,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1640,7 +1659,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1651,7 +1670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1675,14 +1694,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1716,7 +1735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1730,7 +1749,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1747,7 +1766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1761,7 +1780,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1775,7 +1794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1789,7 +1808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1803,7 +1822,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1817,7 +1836,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1831,7 +1850,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1845,7 +1864,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1856,7 +1875,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1867,7 +1886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1878,7 +1897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1889,7 +1908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -1900,7 +1919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1911,7 +1930,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>103</v>
       </c>

--- a/desginer/001excel/表结构.xlsx
+++ b/desginer/001excel/表结构.xlsx
@@ -443,11 +443,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>router_parent_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由父ids,使用，分割</t>
+    <t>router_parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由父id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1601,7 +1601,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/desginer/001excel/表结构.xlsx
+++ b/desginer/001excel/表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="角色" sheetId="6" r:id="rId5"/>
     <sheet name="用户菜单路由" sheetId="7" r:id="rId6"/>
     <sheet name="用户角色表" sheetId="8" r:id="rId7"/>
-    <sheet name="用户信息视图" sheetId="9" r:id="rId8"/>
+    <sheet name="用户角色路由视图" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="109">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,6 +435,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>router_parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由父id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>roles</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,11 +451,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>router_parent_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由父id</t>
+    <t>router_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由ids，格式为：父:子,子#父:子,子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -1535,13 +1543,13 @@
     </row>
     <row r="3" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1601,7 +1609,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1692,11 +1700,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1723,21 +1731,21 @@
     </row>
     <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1746,12 +1754,15 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1759,186 +1770,74 @@
       <c r="C4">
         <v>60</v>
       </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>60</v>
-      </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>60</v>
-      </c>
       <c r="E10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/desginer/001excel/表结构.xlsx
+++ b/desginer/001excel/表结构.xlsx
@@ -455,7 +455,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>路由ids，格式为：父:子,子#父:子,子</t>
+    <t>路由ids，格式为：父:子,子&amp;父:子,子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1704,7 +1704,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/desginer/001excel/表结构.xlsx
+++ b/desginer/001excel/表结构.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="用户菜单路由" sheetId="7" r:id="rId6"/>
     <sheet name="用户角色表" sheetId="8" r:id="rId7"/>
     <sheet name="用户角色路由视图" sheetId="9" r:id="rId8"/>
+    <sheet name="操作日志表" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="127">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,6 +457,78 @@
   </si>
   <si>
     <t>路由ids，格式为：父:子,子&amp;父:子,子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +595,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -564,7 +637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,7 +672,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,12 +888,12 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,7 +913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -854,7 +927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -868,7 +941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -882,7 +955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -896,7 +969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -907,7 +980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -918,7 +991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -948,9 +1021,9 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +1043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -984,7 +1057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1001,7 +1074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1015,7 +1088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1026,7 +1099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1037,7 +1110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1063,9 +1136,9 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1099,7 +1172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1116,7 +1189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1130,7 +1203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1141,7 +1214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1152,7 +1225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1182,9 +1255,9 @@
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1204,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1218,7 +1291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1232,7 +1305,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1249,7 +1322,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1263,7 +1336,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1277,7 +1350,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1291,7 +1364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1305,7 +1378,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1319,7 +1392,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1333,7 +1406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1347,7 +1420,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1358,7 +1431,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1369,7 +1442,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1380,7 +1453,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1404,12 +1477,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1429,7 +1502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1443,7 +1516,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1457,7 +1530,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1468,7 +1541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1479,7 +1552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1508,9 +1581,9 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1530,7 +1603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1541,7 +1614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -1552,7 +1625,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1563,7 +1636,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -1574,7 +1647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1585,7 +1658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -1612,9 +1685,9 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1634,7 +1707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1645,7 +1718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1656,7 +1729,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1667,7 +1740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1678,7 +1751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1702,14 +1775,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1729,40 +1951,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1771,73 +1990,74 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
       <c r="E8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
       <c r="E9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
